--- a/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
+++ b/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20160405.222455" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Packets sent by 1x TCPreplay</a:t>
+              <a:t>Packets sent to by 1x TCPreplay (Bare metal)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1816,7 +1816,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Traffic sent by 1x TCPreplay </a:t>
+              <a:t>Traffic sent by 1x TCPreplay (Bare metal) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9480,8 +9480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11336,8 +11336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
+++ b/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
@@ -1776,7 +1776,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2966,7 +2966,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4094,16 +4094,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>407988</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4129,16 +4129,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9481,7 +9481,7 @@
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11337,7 +11337,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
+++ b/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
@@ -233,7 +233,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -251,14 +251,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>PktT!$A$3:$A$62</c:f>
@@ -637,6 +640,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -653,14 +657,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>PktT!$A$3:$A$62</c:f>
@@ -1039,6 +1046,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1048,11 +1056,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47732528"/>
-        <c:axId val="47733088"/>
+        <c:smooth val="0"/>
+        <c:axId val="415631472"/>
+        <c:axId val="415635392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredAreaSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -1074,14 +1083,17 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
@@ -1472,13 +1484,14 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="1"/>
               </c15:ser>
-            </c15:filteredAreaSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:areaChart>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="47732528"/>
+        <c:axId val="415631472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47733088"/>
+        <c:crossAx val="415635392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1585,7 +1598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47733088"/>
+        <c:axId val="415635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,9 +1710,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47732528"/>
+        <c:crossAx val="415631472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1854,7 +1867,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1872,14 +1885,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>BytesT!$A$3:$A$62</c:f>
@@ -2258,6 +2274,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2274,14 +2291,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>BytesT!$A$3:$A$62</c:f>
@@ -2660,6 +2680,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2669,11 +2690,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371909664"/>
-        <c:axId val="371907424"/>
-      </c:areaChart>
+        <c:smooth val="0"/>
+        <c:axId val="137675072"/>
+        <c:axId val="137677312"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="371909664"/>
+        <c:axId val="137675072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371907424"/>
+        <c:crossAx val="137677312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2780,7 +2802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371907424"/>
+        <c:axId val="137677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,9 +2909,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371909664"/>
+        <c:crossAx val="137675072"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9481,7 +9503,7 @@
   <dimension ref="A1:C251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11337,7 +11359,7 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
+++ b/experiments/suricata_with_stat/data/bm,bigFlows,1,1,tcpreplay.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20160405.222455" sheetId="1" r:id="rId1"/>
     <sheet name="20160405.223019" sheetId="5" r:id="rId2"/>
-    <sheet name="PktT" sheetId="3" r:id="rId3"/>
-    <sheet name="BytesT" sheetId="4" r:id="rId4"/>
+    <sheet name="TCPREPLAY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="23">
   <si>
     <t>NET</t>
   </si>
@@ -80,16 +79,22 @@
     <t>NIC</t>
   </si>
   <si>
-    <t>Inst0</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
     <t>20160405.223019</t>
   </si>
   <si>
-    <t>Inst1</t>
+    <t>Inst0.Bytes</t>
+  </si>
+  <si>
+    <t>Inst0.Pkts</t>
+  </si>
+  <si>
+    <t>Inst1.Pkts</t>
+  </si>
+  <si>
+    <t>Inst1.Bytes</t>
   </si>
 </sst>
 </file>
@@ -181,7 +186,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -189,13 +194,21 @@
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:ea typeface="+mj-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Packets sent to by 1x TCPreplay (Bare metal)</a:t>
+              <a:t>Packets</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Bytes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Sent by 1x TCPreplay (Bare metal)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -214,7 +227,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -222,7 +235,7 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:ea typeface="+mj-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -233,27 +246,849 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TCPREPLAY!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inst0.Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TCPREPLAY!$C$3:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>4051871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4861291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4870237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5914827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6891088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8740585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8585089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8275431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7573692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5867509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4846189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4867056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2721811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7608353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5258305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6884941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8250852</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7522105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5119248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7001498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2413914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7426319</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9040432</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6344048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9043976</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7715939</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6789374</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3841324</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8691019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12151528</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6860462</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4611746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6214348</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6055506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5399611</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6388240</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3646749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4761314</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3301300</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4509484</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3872450</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4538841</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3883116</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3362575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3154723</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6865259</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3033140</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6621415</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2885381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5368789</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6226712</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4386795</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5138204</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3956649</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5616570</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6425746</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8423940</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7740914</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5694835</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6298179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TCPREPLAY!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inst1.Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TCPREPLAY!$E$3:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>4343495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4693254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5046906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5827752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7206395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8725044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8780214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8134190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7707488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5495674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4928004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4563975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2804668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7656525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5796338</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6499404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8063502</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7922401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4641416</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7003514</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2453447</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7410796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9267278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6676152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8547938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7898905</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6972189</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3477865</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8767162</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12487814</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6483204</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4652800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6682423</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5531783</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5494517</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6708575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3107769</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4832338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3399700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4625716</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3745335</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4534819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3792644</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3449570</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3084371</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6957983</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2959938</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6602005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2794416</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5544095</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6144282</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4383030</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5099397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4433278</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5075844</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7090981</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8426219</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7292874</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5829545</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="438380272"/>
+        <c:axId val="438379712"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PktT!$B$2</c:f>
+              <c:f>TCPREPLAY!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inst0</c:v>
+                  <c:v>Inst0.Pkts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -264,7 +1099,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PktT!$A$3:$A$62</c:f>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -453,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PktT!$B$3:$B$62</c:f>
+              <c:f>TCPREPLAY!$B$3:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -640,26 +1475,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>PktT!$C$2</c:f>
+              <c:f>TCPREPLAY!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inst1</c:v>
+                  <c:v>Inst1.Pkts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -670,7 +1505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PktT!$A$3:$A$62</c:f>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -859,7 +1694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PktT!$C$3:$C$62</c:f>
+              <c:f>TCPREPLAY!$D$3:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1046,7 +1881,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1056,442 +1891,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="415631472"/>
-        <c:axId val="415635392"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Time</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$3:$A$62</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>295</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$3:$A$62</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>295</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="1"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="346290224"/>
+        <c:axId val="346289664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="415631472"/>
+        <c:axId val="438380272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1910,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1517,7 +1923,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
                   <a:t>Time (second)</a:t>
                 </a:r>
               </a:p>
@@ -1537,7 +1943,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1575,7 +1981,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1590,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415635392"/>
+        <c:crossAx val="438379712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1598,7 +2004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415635392"/>
+        <c:axId val="438379712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,6 +2024,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1625,7 +2045,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1638,14 +2058,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Packets per</a:t>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
+                  <a:t>Traffic sent (Bps)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1663,7 +2078,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1710,1005 +2125,25 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415631472"/>
+        <c:crossAx val="438380272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Traffic sent by 1x TCPreplay (Bare metal) </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BytesT!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inst0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BytesT!$A$3:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BytesT!$B$3:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>4051871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4861291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4870237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5914827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6891088</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8740585</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8585089</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8275431</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7573692</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5867509</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4846189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4867056</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2721811</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7608353</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5258305</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6884941</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8250852</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7522105</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5119248</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7001498</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2413914</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7426319</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9040432</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6344048</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9043976</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7715939</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6789374</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3841324</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8691019</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12151528</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6860462</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4611746</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6214348</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6055506</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5399611</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6388240</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3646749</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4761314</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3301300</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4509484</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3872450</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4538841</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3883116</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3362575</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3154723</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6865259</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3033140</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6621415</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2885381</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5368789</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6226712</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4386795</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5138204</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3956649</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5616570</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6425746</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8423940</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7740914</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5694835</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6298179</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BytesT!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inst1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BytesT!$A$3:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BytesT!$C$3:$C$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>4343495</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4693254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5046906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5827752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7206395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8725044</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8780214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8134190</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7707488</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5495674</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4928004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4563975</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2804668</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7656525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5796338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6499404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8063502</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7922401</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4641416</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7003514</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2453447</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7410796</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9267278</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6676152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8547938</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7898905</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6972189</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3477865</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8767162</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12487814</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6483204</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4652800</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6682423</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5531783</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5494517</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6708575</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3107769</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4832338</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3399700</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4625716</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3745335</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4534819</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3792644</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3449570</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3084371</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6957983</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2959938</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6602005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2794416</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5544095</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6144282</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4383030</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5099397</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4433278</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5075844</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7090981</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8426219</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7292874</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5829545</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="137675072"/>
-        <c:axId val="137677312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="137675072"/>
+      <c:valAx>
+        <c:axId val="346289664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2721,129 +2156,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (second)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="137677312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="137677312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speed (B/sec)</a:t>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
+                  <a:t>Packets sent (count/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2862,7 +2176,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2909,10 +2223,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137675072"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="346290224"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="346290224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="346289664"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2922,7 +2253,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2954,7 +2285,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2988,49 +2319,12 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3071,7 +2365,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3082,7 +2376,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3105,14 +2399,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3128,7 +2422,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3148,22 +2442,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3172,35 +2461,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3209,33 +2508,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3257,15 +2552,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3275,7 +2568,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3284,14 +2577,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3300,17 +2592,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3319,14 +2611,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3338,26 +2630,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3376,7 +2657,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3395,17 +2676,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3414,17 +2695,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3445,7 +2725,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3453,7 +2733,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3484,10 +2764,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3502,13 +2782,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3517,14 +2797,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3545,20 +2825,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3579,535 +2858,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4116,55 +2868,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9500,41 +8217,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9543,11 +8267,19 @@
         <v>11600</v>
       </c>
       <c r="C3">
-        <f ca="1">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <f ca="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>4051871</v>
+      </c>
+      <c r="D3">
+        <f ca="1">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
         <v>12588</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f ca="1">INDIRECT("'" &amp; $D$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>4343495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9556,11 +8288,19 @@
         <v>12042</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" ca="1" si="1">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <f t="shared" ref="C4:C63" ca="1" si="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>4861291</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" ca="1" si="2">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
         <v>11676</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E63" ca="1" si="3">INDIRECT("'" &amp; $D$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>4693254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9570,10 +8310,18 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
+        <v>4870237</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
         <v>11983</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>5046906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -9583,10 +8331,18 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
+        <v>5914827</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
         <v>13848</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5827752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -9596,10 +8352,18 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
+        <v>6891088</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
         <v>15764</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>7206395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -9609,10 +8373,18 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
+        <v>8740585</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
         <v>17507</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>8725044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -9622,10 +8394,18 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
+        <v>8585089</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
         <v>17278</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>8780214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -9635,10 +8415,18 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
+        <v>8275431</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
         <v>16566</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>8134190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -9648,10 +8436,18 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
+        <v>7573692</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
         <v>15657</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>7707488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -9661,10 +8457,18 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
+        <v>5867509</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
         <v>12639</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>5495674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -9674,10 +8478,18 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
+        <v>4846189</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
         <v>12268</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>4928004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -9687,10 +8499,18 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
+        <v>4867056</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
         <v>12317</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>4563975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60</v>
       </c>
@@ -9700,10 +8520,18 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
+        <v>2721811</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
         <v>10303</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>2804668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -9713,10 +8541,18 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
+        <v>7608353</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
         <v>14667</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>7656525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
@@ -9726,10 +8562,18 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
+        <v>5258305</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
         <v>12128</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>5796338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
@@ -9739,10 +8583,18 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
+        <v>6884941</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
         <v>14056</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>6499404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -9752,10 +8604,18 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
+        <v>8250852</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
         <v>15651</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>8063502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>85</v>
       </c>
@@ -9765,10 +8625,18 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
+        <v>7522105</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
         <v>16005</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>7922401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
@@ -9778,10 +8646,18 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
+        <v>5119248</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
         <v>12584</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>4641416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -9791,10 +8667,18 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
+        <v>7001498</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
         <v>14539</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>7003514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -9804,10 +8688,18 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
+        <v>2413914</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
         <v>9376</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>2453447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>105</v>
       </c>
@@ -9817,10 +8709,18 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
+        <v>7426319</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
         <v>16083</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>7410796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>110</v>
       </c>
@@ -9830,10 +8730,18 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
+        <v>9040432</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
         <v>16864</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>9267278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -9843,10 +8751,18 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
+        <v>6344048</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
         <v>14515</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>6676152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>120</v>
       </c>
@@ -9856,10 +8772,18 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
+        <v>9043976</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
         <v>16891</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>8547938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -9869,10 +8793,18 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
+        <v>7715939</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
         <v>15750</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>7898905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>130</v>
       </c>
@@ -9882,10 +8814,18 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
+        <v>6789374</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
         <v>14505</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>6972189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>135</v>
       </c>
@@ -9895,10 +8835,18 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
+        <v>3841324</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
         <v>10826</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>3477865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>140</v>
       </c>
@@ -9908,10 +8856,18 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
+        <v>8691019</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
         <v>16766</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>8767162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>145</v>
       </c>
@@ -9921,10 +8877,18 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
+        <v>12151528</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
         <v>21044</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>12487814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>150</v>
       </c>
@@ -9934,10 +8898,18 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
+        <v>6860462</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
         <v>14585</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>6483204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155</v>
       </c>
@@ -9947,10 +8919,18 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
+        <v>4611746</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
         <v>12313</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>4652800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>160</v>
       </c>
@@ -9960,10 +8940,18 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
+        <v>6214348</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
         <v>13205</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6682423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>165</v>
       </c>
@@ -9973,10 +8961,18 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
+        <v>6055506</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
         <v>12324</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>5531783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>170</v>
       </c>
@@ -9986,10 +8982,18 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
+        <v>5399611</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
         <v>12220</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>5494517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>175</v>
       </c>
@@ -9999,10 +9003,18 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
+        <v>6388240</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
         <v>13880</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>6708575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>180</v>
       </c>
@@ -10012,10 +9024,18 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
+        <v>3646749</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
         <v>10308</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>3107769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>185</v>
       </c>
@@ -10025,10 +9045,18 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
+        <v>4761314</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
         <v>11895</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>4832338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>190</v>
       </c>
@@ -10038,10 +9066,18 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
+        <v>3301300</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
         <v>9722</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>3399700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>195</v>
       </c>
@@ -10051,10 +9087,18 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
+        <v>4509484</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
         <v>11511</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>4625716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
@@ -10064,10 +9108,18 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
+        <v>3872450</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
         <v>10397</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>3745335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>205</v>
       </c>
@@ -10077,10 +9129,18 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
+        <v>4538841</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
         <v>11705</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>4534819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>210</v>
       </c>
@@ -10090,10 +9150,18 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
+        <v>3883116</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
         <v>10137</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>3792644</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>215</v>
       </c>
@@ -10103,10 +9171,18 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
+        <v>3362575</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
         <v>9759</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>3449570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>220</v>
       </c>
@@ -10116,10 +9192,18 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
+        <v>3154723</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
         <v>9372</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3084371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>225</v>
       </c>
@@ -10129,10 +9213,18 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
+        <v>6865259</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
         <v>13458</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>6957983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>230</v>
       </c>
@@ -10142,10 +9234,18 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
+        <v>3033140</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
         <v>8537</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2959938</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>235</v>
       </c>
@@ -10155,10 +9255,18 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
+        <v>6621415</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
         <v>11950</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>6602005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>240</v>
       </c>
@@ -10168,10 +9276,18 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
+        <v>2885381</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
         <v>8541</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>2794416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>245</v>
       </c>
@@ -10181,10 +9297,18 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
+        <v>5368789</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
         <v>11889</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>5544095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>250</v>
       </c>
@@ -10194,10 +9318,18 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
+        <v>6226712</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
         <v>13694</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>6144282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>255</v>
       </c>
@@ -10207,10 +9339,18 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
+        <v>4386795</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
         <v>11639</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>4383030</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>260</v>
       </c>
@@ -10220,10 +9360,18 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
+        <v>5138204</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
         <v>11229</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>5099397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>265</v>
       </c>
@@ -10233,10 +9381,18 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
+        <v>3956649</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
         <v>11629</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>4433278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>270</v>
       </c>
@@ -10246,10 +9402,18 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
+        <v>5616570</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
         <v>10874</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>5075844</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>275</v>
       </c>
@@ -10259,10 +9423,18 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
+        <v>6425746</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
         <v>13211</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>7090981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>280</v>
       </c>
@@ -10272,10 +9444,18 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
+        <v>8423940</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
         <v>14842</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>8426219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>285</v>
       </c>
@@ -10285,10 +9465,18 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
+        <v>7740914</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
         <v>14245</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>7292874</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>290</v>
       </c>
@@ -10298,10 +9486,18 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
+        <v>5694835</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
         <v>11986</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>5829545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>295</v>
       </c>
@@ -10311,10 +9507,18 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6298179</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>300</v>
       </c>
@@ -10326,8 +9530,16 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>305</v>
       </c>
@@ -10335,12 +9547,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>310</v>
       </c>
@@ -10348,12 +9560,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>315</v>
       </c>
@@ -10361,12 +9573,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>320</v>
       </c>
@@ -10374,120 +9586,120 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>325</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B77" ca="1" si="2">INDIRECT("'" &amp; $B$1 &amp; "'!J" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C69" ca="1" si="3">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B68:B77" ca="1" si="4">INDIRECT("'" &amp; $B$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D69" ca="1" si="5">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>330</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>335</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>340</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>345</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>350</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>355</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>360</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>365</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>370</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>385</v>
       </c>
@@ -11352,897 +10564,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f ca="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>4051871</v>
-      </c>
-      <c r="C3">
-        <f ca="1">INDIRECT("'" &amp; $C$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>4343495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B67" ca="1" si="0">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>4861291</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C64" ca="1" si="1">INDIRECT("'" &amp; $C$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>4693254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4870237</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>5046906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5914827</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>5827752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6891088</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>7206395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>8740585</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>8725044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>8585089</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>8780214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>8275431</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>8134190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7573692</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>7707488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>5867509</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>5495674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>4846189</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>4928004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>55</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4867056</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4563975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2721811</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2804668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>65</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>7608353</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>7656525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>5258305</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5796338</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>6884941</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>6499404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>8250852</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>8063502</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>85</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>7522105</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7922401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>5119248</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>4641416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>95</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>7001498</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>7003514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>2413914</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2453447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>105</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>7426319</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>7410796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>110</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>9040432</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>9267278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>115</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>6344048</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>6676152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>120</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>9043976</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>8547938</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>7715939</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>7898905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>130</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6789374</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>6972189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>135</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>3841324</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>3477865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>140</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>8691019</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>8767162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>145</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>12151528</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>12487814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>150</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>6860462</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>6483204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>155</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>4611746</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>4652800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>160</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>6214348</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>6682423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>165</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>6055506</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>5531783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>170</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>5399611</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>5494517</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>175</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>6388240</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>6708575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>180</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>3646749</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>3107769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>185</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>4761314</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>4832338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>190</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="0"/>
-        <v>3301300</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>3399700</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>195</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>4509484</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>4625716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>200</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>3872450</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>3745335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>205</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>4538841</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>4534819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>210</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="0"/>
-        <v>3883116</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>3792644</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>215</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>3362575</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>3449570</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>220</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>3154723</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>3084371</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>225</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ca="1" si="0"/>
-        <v>6865259</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>6957983</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>230</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>3033140</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>2959938</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>235</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>6621415</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>6602005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>240</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>2885381</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>2794416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>245</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>5368789</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>5544095</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>250</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>6226712</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>6144282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>255</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>4386795</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="1"/>
-        <v>4383030</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>260</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>5138204</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="1"/>
-        <v>5099397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>265</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>3956649</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="1"/>
-        <v>4433278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>270</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>5616570</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="1"/>
-        <v>5075844</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>275</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>6425746</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="1"/>
-        <v>7090981</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>280</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>8423940</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="1"/>
-        <v>8426219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>285</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>7740914</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="1"/>
-        <v>7292874</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>290</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>5694835</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="1"/>
-        <v>5829545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>295</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>6298179</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>300</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>305</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>310</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>315</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>320</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>325</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68:B69" ca="1" si="2">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>330</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>